--- a/Assets/Excel/InterestRateDepositTable.xlsx
+++ b/Assets/Excel/InterestRateDepositTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10B Outsourcing\Filab\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93E5965-0EFA-4E05-8010-AA75AE83326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED36888C-45C6-4939-A484-1F068AE70157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="InterestRateDepositTable" sheetId="1" r:id="rId1"/>
@@ -182,15 +182,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -704,2070 +698,2070 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>100000000001</v>
       </c>
-      <c r="B5" s="3">
-        <v>1977</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>0.04</v>
       </c>
-      <c r="M5" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="M5" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N5" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>100000000002</v>
       </c>
-      <c r="B6" s="3">
-        <v>1978</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="1">
+        <v>1301</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E6" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>0.05</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>100000000003</v>
       </c>
-      <c r="B7" s="3">
-        <v>1979</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="1">
+        <v>1302</v>
+      </c>
+      <c r="C7" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <v>0.04</v>
       </c>
-      <c r="M7" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="M7" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N7" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>100000000004</v>
       </c>
-      <c r="B8" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="1">
+        <v>1303</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E8" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="1">
         <v>0.05</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>100000000005</v>
       </c>
-      <c r="B9" s="3">
-        <v>1981</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="1">
+        <v>1304</v>
+      </c>
+      <c r="C9" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="1">
         <v>0.04</v>
       </c>
-      <c r="M9" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="M9" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N9" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>100000000006</v>
       </c>
-      <c r="B10" s="3">
-        <v>1982</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10" s="1">
+        <v>1305</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E10" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>0.05</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>100000000007</v>
       </c>
-      <c r="B11" s="3">
-        <v>1983</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="1">
+        <v>1306</v>
+      </c>
+      <c r="C11" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="1">
         <v>0.04</v>
       </c>
-      <c r="M11" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="M11" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N11" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>100000000008</v>
       </c>
-      <c r="B12" s="3">
-        <v>1984</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B12" s="1">
+        <v>1307</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E12" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>0.05</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>100000000009</v>
       </c>
-      <c r="B13" s="3">
-        <v>1985</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="1">
+        <v>1308</v>
+      </c>
+      <c r="C13" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="1">
         <v>0.04</v>
       </c>
-      <c r="M13" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N13" s="3">
+      <c r="M13" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N13" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>100000000010</v>
       </c>
-      <c r="B14" s="3">
-        <v>1986</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="B14" s="1">
+        <v>1309</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E14" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="1">
         <v>0.05</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>100000000011</v>
       </c>
-      <c r="B15" s="3">
-        <v>1987</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="1">
+        <v>1310</v>
+      </c>
+      <c r="C15" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="1">
         <v>0.04</v>
       </c>
-      <c r="M15" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N15" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>100000000012</v>
       </c>
-      <c r="B16" s="3">
-        <v>1988</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="B16" s="1">
+        <v>1311</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E16" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="1">
         <v>0.05</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>100000000013</v>
       </c>
-      <c r="B17" s="3">
-        <v>1989</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="1">
+        <v>1312</v>
+      </c>
+      <c r="C17" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="1">
         <v>0.04</v>
       </c>
-      <c r="M17" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="M17" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N17" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>100000000014</v>
       </c>
-      <c r="B18" s="3">
-        <v>1990</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="B18" s="1">
+        <v>1313</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E18" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="1">
         <v>0.05</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>100000000015</v>
       </c>
-      <c r="B19" s="3">
-        <v>1991</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="1">
+        <v>1314</v>
+      </c>
+      <c r="C19" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="1">
         <v>0.04</v>
       </c>
-      <c r="M19" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="M19" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N19" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>100000000016</v>
       </c>
-      <c r="B20" s="3">
-        <v>1992</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B20" s="1">
+        <v>1315</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E20" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <v>0.05</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>100000000017</v>
       </c>
-      <c r="B21" s="3">
-        <v>1993</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="1">
+        <v>1316</v>
+      </c>
+      <c r="C21" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1">
         <v>0.04</v>
       </c>
-      <c r="M21" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="M21" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N21" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>100000000018</v>
       </c>
-      <c r="B22" s="3">
-        <v>1994</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="B22" s="1">
+        <v>1317</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E22" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>0.05</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>100000000019</v>
       </c>
-      <c r="B23" s="3">
-        <v>1995</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="1">
+        <v>1318</v>
+      </c>
+      <c r="C23" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="1">
         <v>0.04</v>
       </c>
-      <c r="M23" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="M23" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N23" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>100000000020</v>
       </c>
-      <c r="B24" s="3">
-        <v>1996</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="B24" s="1">
+        <v>1319</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E24" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>0.05</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>100000000021</v>
       </c>
-      <c r="B25" s="3">
-        <v>1997</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="1">
+        <v>1320</v>
+      </c>
+      <c r="C25" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="1">
         <v>0.04</v>
       </c>
-      <c r="M25" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="M25" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N25" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>100000000022</v>
       </c>
-      <c r="B26" s="3">
-        <v>1998</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="B26" s="1">
+        <v>1321</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E26" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="1">
         <v>0.05</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>100000000023</v>
       </c>
-      <c r="B27" s="3">
-        <v>1999</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="1">
+        <v>1322</v>
+      </c>
+      <c r="C27" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="1">
         <v>0.04</v>
       </c>
-      <c r="M27" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="M27" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N27" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>100000000024</v>
       </c>
-      <c r="B28" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="B28" s="1">
+        <v>1323</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E28" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="1">
         <v>0.05</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>100000000025</v>
       </c>
-      <c r="B29" s="3">
-        <v>2001</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="1">
+        <v>1324</v>
+      </c>
+      <c r="C29" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="1">
         <v>0.04</v>
       </c>
-      <c r="M29" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M29" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N29" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>100000000026</v>
       </c>
-      <c r="B30" s="3">
-        <v>2002</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="B30" s="1">
+        <v>1325</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E30" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="1">
         <v>0.05</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>100000000027</v>
       </c>
-      <c r="B31" s="3">
-        <v>2003</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="1">
+        <v>1326</v>
+      </c>
+      <c r="C31" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="1">
         <v>0.04</v>
       </c>
-      <c r="M31" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="M31" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N31" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>100000000028</v>
       </c>
-      <c r="B32" s="3">
-        <v>2004</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="B32" s="1">
+        <v>1327</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E32" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="1">
         <v>0.05</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>100000000029</v>
       </c>
-      <c r="B33" s="3">
-        <v>2005</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="1">
+        <v>1328</v>
+      </c>
+      <c r="C33" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="1">
         <v>0.04</v>
       </c>
-      <c r="M33" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="M33" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N33" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>100000000030</v>
       </c>
-      <c r="B34" s="3">
-        <v>2006</v>
-      </c>
-      <c r="C34" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="B34" s="1">
+        <v>1329</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E34" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="1">
         <v>0.05</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>100000000031</v>
       </c>
-      <c r="B35" s="3">
-        <v>2007</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="1">
+        <v>1330</v>
+      </c>
+      <c r="C35" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="1">
         <v>0.04</v>
       </c>
-      <c r="M35" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="M35" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N35" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>100000000032</v>
       </c>
-      <c r="B36" s="3">
-        <v>2008</v>
-      </c>
-      <c r="C36" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="B36" s="1">
+        <v>1331</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E36" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="1">
         <v>0.05</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>100000000033</v>
       </c>
-      <c r="B37" s="3">
-        <v>2009</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="1">
+        <v>1332</v>
+      </c>
+      <c r="C37" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="1">
         <v>0.04</v>
       </c>
-      <c r="M37" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N37" s="3">
+      <c r="M37" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N37" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>100000000034</v>
       </c>
-      <c r="B38" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="B38" s="1">
+        <v>1333</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E38" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="1">
         <v>0.05</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>100000000035</v>
       </c>
-      <c r="B39" s="3">
-        <v>2011</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="1">
+        <v>1334</v>
+      </c>
+      <c r="C39" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="1">
         <v>0.04</v>
       </c>
-      <c r="M39" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="M39" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N39" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>100000000036</v>
       </c>
-      <c r="B40" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="B40" s="1">
+        <v>1335</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E40" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="1">
         <v>0.05</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>100000000037</v>
       </c>
-      <c r="B41" s="3">
-        <v>2013</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B41" s="1">
+        <v>1336</v>
+      </c>
+      <c r="C41" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="1">
         <v>0.04</v>
       </c>
-      <c r="M41" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="M41" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N41" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>100000000038</v>
       </c>
-      <c r="B42" s="3">
-        <v>2014</v>
-      </c>
-      <c r="C42" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D42" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="B42" s="1">
+        <v>1337</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E42" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="1">
         <v>0.05</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>100000000039</v>
       </c>
-      <c r="B43" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="1">
+        <v>1338</v>
+      </c>
+      <c r="C43" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="1">
         <v>0.04</v>
       </c>
-      <c r="M43" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N43" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>100000000040</v>
       </c>
-      <c r="B44" s="3">
-        <v>2016</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B44" s="1">
+        <v>1339</v>
+      </c>
+      <c r="C44" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="1">
         <v>0.03</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>100000000041</v>
       </c>
-      <c r="B45" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="1">
+        <v>1340</v>
+      </c>
+      <c r="C45" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="1">
         <v>0.02</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>100000000042</v>
       </c>
-      <c r="B46" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="1">
+        <v>1341</v>
+      </c>
+      <c r="C46" s="1">
         <v>1E-3</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>2E-3</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="1">
         <v>0.01</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="1">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>100000000043</v>
       </c>
-      <c r="B47" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B47" s="1">
+        <v>1342</v>
+      </c>
+      <c r="C47" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="1">
         <v>0.04</v>
       </c>
-      <c r="M47" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N47" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>100000000044</v>
       </c>
-      <c r="B48" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C48" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="B48" s="1">
+        <v>1343</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E48" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="1">
         <v>0.05</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>100000000045</v>
       </c>
-      <c r="B49" s="3">
-        <v>2021</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" s="1">
+        <v>1344</v>
+      </c>
+      <c r="C49" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="1">
         <v>0.04</v>
       </c>
-      <c r="M49" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="M49" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N49" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>100000000046</v>
       </c>
-      <c r="B50" s="3">
-        <v>2022</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="B50" s="1">
+        <v>1345</v>
+      </c>
+      <c r="C50" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="1">
         <v>2.3E-2</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="1">
         <v>0.03</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>100000000047</v>
       </c>
-      <c r="B51" s="3">
-        <v>2023</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="B51" s="1">
+        <v>1346</v>
+      </c>
+      <c r="C51" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="1">
         <v>0.02</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
